--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBUAHIN\SourceCodes\cbuahin\2025_EWRI_SWMM_Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Gregory\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C57E86-8BCC-4FC3-A3CB-3E8E11EDFA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74136C9C-5796-4E71-B089-95582542F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84C8BF18-5336-430D-822A-4520469103E1}"/>
+    <workbookView xWindow="1560" yWindow="735" windowWidth="25275" windowHeight="20865" xr2:uid="{84C8BF18-5336-430D-822A-4520469103E1}"/>
   </bookViews>
   <sheets>
     <sheet name="EPA2025s" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Workshop:</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Opening Q&amp;A and break for lunch</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>Exercise 3</t>
   </si>
   <si>
@@ -197,39 +194,6 @@
     <t>5:00pm End</t>
   </si>
   <si>
-    <t>Bonus Lecture</t>
-  </si>
-  <si>
-    <t>Water Quality (provide PDF of slides)</t>
-  </si>
-  <si>
-    <t>Bonus Exercise</t>
-  </si>
-  <si>
-    <t>Proposed Pipe/Conveyance Improvements (ditto)</t>
-  </si>
-  <si>
-    <t>Model Calibration (same model as Exercises 1-3)</t>
-  </si>
-  <si>
-    <t>Proposed Storage/Pump Improvements (ditto)</t>
-  </si>
-  <si>
-    <t>Local Demos</t>
-  </si>
-  <si>
-    <t>Rainfall and Runoff Analysis (Design Storms)</t>
-  </si>
-  <si>
-    <t>Long-Term Continuous Simulation</t>
-  </si>
-  <si>
-    <t>Snowmelt and Groundwater Model Setup</t>
-  </si>
-  <si>
-    <t>Caleb, Scott,Mitch, Corinne, Mike</t>
-  </si>
-  <si>
     <t>Caleb and Mitch</t>
   </si>
   <si>
@@ -245,10 +209,27 @@
     <t>Create a snowmelt and groundwater model (ANC2)</t>
   </si>
   <si>
-    <t>Exercise set ANC3</t>
-  </si>
-  <si>
     <t>SWMM5 Low Impact Development Modeling</t>
+  </si>
+  <si>
+    <t>Caleb, Mitch, Corinne, Mike</t>
+  </si>
+  <si>
+    <t>Investigate LID alternatives for new dev'pt (ANC3)</t>
+  </si>
+  <si>
+    <r>
+      <t>Bonus Lectures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Model Calibration, Water Quality</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -301,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,35 +344,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,8 +381,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,20 +719,18 @@
     <tabColor rgb="FFFFFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -798,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -860,13 +813,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E9" s="10">
         <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10">
         <v>45</v>
@@ -900,7 +853,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E14" s="10">
         <v>45</v>
@@ -957,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,13 +921,13 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10">
         <v>60</v>
@@ -985,13 +938,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E18" s="10">
         <v>45</v>
@@ -1002,36 +955,36 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="10">
         <v>60</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="10">
         <v>45</v>
@@ -1042,13 +995,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="10">
         <v>15</v>
@@ -1059,17 +1012,17 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="13" t="str">
         <f>SUM(E9:E22)/60&amp;" hr"</f>
         <v>7.75 hr</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1078,70 +1031,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1151,6 +1042,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2024-10-31T15:03:45+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="051b7c6e-5b0e-436a-8619-f9f06d925ec6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F56EEC23E2A73B4FB88E2805E2DF1AB5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a5d7d225ac085a05c15be8def7905c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="051b7c6e-5b0e-436a-8619-f9f06d925ec6" xmlns:ns6="de44a4c5-6768-46e9-81df-7adefc98aa84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55559324a15b029e96ee4b5dc9f927d8" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1595,63 +1542,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6F8F7D-80C6-4D28-942C-81AE62B29347}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="051b7c6e-5b0e-436a-8619-f9f06d925ec6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A9DD67-F891-4F85-8612-6EEAB2E818AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2024-10-31T15:03:45+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="051b7c6e-5b0e-436a-8619-f9f06d925ec6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565CEB22-2513-4A11-B43A-4407E36DC061}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D188C2F-A4CC-45DB-892E-2DDB2A03B93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1672,34 +1593,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565CEB22-2513-4A11-B43A-4407E36DC061}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A9DD67-F891-4F85-8612-6EEAB2E818AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6F8F7D-80C6-4D28-942C-81AE62B29347}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="051b7c6e-5b0e-436a-8619-f9f06d925ec6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>